--- a/biology/Médecine/Os_impair/Os_impair.xlsx
+++ b/biology/Médecine/Os_impair/Os_impair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les os impairs, contrairement aux os pairs, sont des os présents en un seul exemplaire dans le squelette humain adulte. Les os impairs sont situés en son centre (dans le plan sagittal).
 On peut distinguer deux catégories d'os impairs : les os uniques et les os fusionnés.
